--- a/medium_quality_PSNR_40.xlsx
+++ b/medium_quality_PSNR_40.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuche\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\jqwqj\image_compressor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E2805-2BBB-4C83-87A6-D683F1BACDC5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C363A0B-16E0-4438-92BD-CBD89A9295DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5520" xr2:uid="{D12DC55C-4EB8-4A51-B828-D4E9D1A17E38}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>block_size (8)</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>jpeg_size</t>
+  </si>
+  <si>
+    <t>file_size(bytes)</t>
   </si>
 </sst>
 </file>
@@ -134,10 +137,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,305 +485,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A98588B-E65B-4FBC-A965-38DBF0A4CB6E}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C4" s="1">
         <v>386</v>
       </c>
-      <c r="C4" s="3">
-        <f>B4/160</f>
+      <c r="D4" s="2">
+        <f>C4/160</f>
         <v>2.4125000000000001</v>
       </c>
-      <c r="D4" s="3">
-        <f>B4/189</f>
+      <c r="E4" s="2">
+        <f>C4/189</f>
         <v>2.0423280423280423</v>
       </c>
-      <c r="E4" s="3">
-        <f>B4/230</f>
+      <c r="F4" s="2">
+        <f>C4/230</f>
         <v>1.6782608695652175</v>
       </c>
-      <c r="F4" s="3">
-        <f>B4/197</f>
+      <c r="G4" s="2">
+        <f>C4/197</f>
         <v>1.9593908629441625</v>
       </c>
-      <c r="G4" s="3">
-        <f>B4/192</f>
+      <c r="H4" s="2">
+        <f>C4/192</f>
         <v>2.0104166666666665</v>
       </c>
-      <c r="H4" s="3">
-        <f>B4/228</f>
+      <c r="I4" s="2">
+        <f>C4/228</f>
         <v>1.6929824561403508</v>
       </c>
-      <c r="I4" s="3">
-        <f>B4/195</f>
+      <c r="J4" s="2">
+        <f>C4/195</f>
         <v>1.9794871794871796</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C5" s="1">
         <v>386</v>
       </c>
-      <c r="C5" s="3">
-        <f>B5/64</f>
+      <c r="D5" s="2">
+        <f>C5/64</f>
         <v>6.03125</v>
       </c>
-      <c r="D5" s="3">
-        <f>B5/66</f>
+      <c r="E5" s="2">
+        <f>C5/66</f>
         <v>5.8484848484848486</v>
       </c>
-      <c r="E5" s="3">
-        <f>B5/80</f>
+      <c r="F5" s="2">
+        <f>C5/80</f>
         <v>4.8250000000000002</v>
       </c>
-      <c r="F5" s="3">
-        <f>B5/74</f>
+      <c r="G5" s="2">
+        <f>C5/74</f>
         <v>5.2162162162162158</v>
       </c>
-      <c r="G5" s="3">
-        <f>B5/59</f>
+      <c r="H5" s="2">
+        <f>C5/59</f>
         <v>6.5423728813559325</v>
       </c>
-      <c r="H5" s="3">
-        <f>B5/75</f>
+      <c r="I5" s="2">
+        <f>C5/75</f>
         <v>5.1466666666666665</v>
       </c>
-      <c r="I5" s="3">
-        <f>B5/67</f>
+      <c r="J5" s="2">
+        <f>C5/67</f>
         <v>5.7611940298507465</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C6" s="1">
         <v>386</v>
       </c>
-      <c r="C6" s="3">
-        <f>B6/67</f>
+      <c r="D6" s="2">
+        <f>C6/67</f>
         <v>5.7611940298507465</v>
       </c>
-      <c r="D6" s="3">
-        <f>B6/80</f>
+      <c r="E6" s="2">
+        <f>C6/80</f>
         <v>4.8250000000000002</v>
       </c>
-      <c r="E6" s="3">
-        <f>B6/97</f>
+      <c r="F6" s="2">
+        <f>C6/97</f>
         <v>3.9793814432989691</v>
       </c>
-      <c r="F6" s="3">
-        <f>B6/88</f>
+      <c r="G6" s="2">
+        <f>C6/88</f>
         <v>4.3863636363636367</v>
       </c>
-      <c r="G6" s="3">
-        <f>B6/74</f>
+      <c r="H6" s="2">
+        <f>C6/74</f>
         <v>5.2162162162162158</v>
       </c>
-      <c r="H6" s="3">
-        <f>B6/93</f>
+      <c r="I6" s="2">
+        <f>C6/93</f>
         <v>4.150537634408602</v>
       </c>
-      <c r="I6" s="3">
-        <f>B6/82</f>
+      <c r="J6" s="2">
+        <f>C6/82</f>
         <v>4.7073170731707314</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C7" s="1">
         <v>386</v>
       </c>
-      <c r="C7" s="3">
-        <f>B7/120</f>
+      <c r="D7" s="2">
+        <f>C7/120</f>
         <v>3.2166666666666668</v>
       </c>
-      <c r="D7" s="3">
-        <f>B7/130</f>
+      <c r="E7" s="2">
+        <f>C7/130</f>
         <v>2.9692307692307693</v>
       </c>
-      <c r="E7" s="3">
-        <f>B7/159</f>
+      <c r="F7" s="2">
+        <f>C7/159</f>
         <v>2.4276729559748427</v>
       </c>
-      <c r="F7" s="3">
-        <f>B7/137</f>
+      <c r="G7" s="2">
+        <f>C7/137</f>
         <v>2.8175182481751824</v>
       </c>
-      <c r="G7" s="3">
-        <f>B7/124</f>
+      <c r="H7" s="2">
+        <f>C7/124</f>
         <v>3.1129032258064515</v>
       </c>
-      <c r="H7" s="3">
-        <f>B7/153</f>
+      <c r="I7" s="2">
+        <f>C7/153</f>
         <v>2.522875816993464</v>
       </c>
-      <c r="I7" s="3">
-        <f>B7/132</f>
+      <c r="J7" s="2">
+        <f>C7/132</f>
         <v>2.9242424242424243</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C8" s="1">
         <v>386</v>
       </c>
-      <c r="C8" s="3">
-        <f>B8/102</f>
+      <c r="D8" s="2">
+        <f>C8/102</f>
         <v>3.784313725490196</v>
       </c>
-      <c r="D8" s="3">
-        <f>B8/113</f>
+      <c r="E8" s="2">
+        <f>C8/113</f>
         <v>3.415929203539823</v>
       </c>
-      <c r="E8" s="3">
-        <f>B8/137</f>
+      <c r="F8" s="2">
+        <f>C8/137</f>
         <v>2.8175182481751824</v>
       </c>
-      <c r="F8" s="3">
-        <f>B8/121</f>
+      <c r="G8" s="2">
+        <f>C8/121</f>
         <v>3.1900826446280992</v>
       </c>
-      <c r="G8" s="3">
-        <f>B8/110</f>
+      <c r="H8" s="2">
+        <f>C8/110</f>
         <v>3.5090909090909093</v>
       </c>
-      <c r="H8" s="3">
-        <f>B8/134</f>
+      <c r="I8" s="2">
+        <f>C8/134</f>
         <v>2.8805970149253732</v>
       </c>
-      <c r="I8" s="3">
-        <f>B8/117</f>
+      <c r="J8" s="2">
+        <f>C8/117</f>
         <v>3.299145299145299</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>394296</v>
+      </c>
+      <c r="C9" s="1">
         <v>386</v>
       </c>
-      <c r="C9" s="3">
-        <f>B9/102</f>
+      <c r="D9" s="2">
+        <f>C9/102</f>
         <v>3.784313725490196</v>
       </c>
-      <c r="D9" s="3">
-        <f>B9/115</f>
+      <c r="E9" s="2">
+        <f>C9/115</f>
         <v>3.3565217391304349</v>
       </c>
-      <c r="E9" s="3">
-        <f>B9/142</f>
+      <c r="F9" s="2">
+        <f>C9/142</f>
         <v>2.7183098591549295</v>
       </c>
-      <c r="F9" s="3">
-        <f>B9/123</f>
+      <c r="G9" s="2">
+        <f>C9/123</f>
         <v>3.1382113821138211</v>
       </c>
-      <c r="G9" s="3">
-        <f>B9/110</f>
+      <c r="H9" s="2">
+        <f>C9/110</f>
         <v>3.5090909090909093</v>
       </c>
-      <c r="H9" s="3">
-        <f>B9/136</f>
+      <c r="I9" s="2">
+        <f>C9/136</f>
         <v>2.8382352941176472</v>
       </c>
-      <c r="I9" s="3">
-        <f>B9/117</f>
+      <c r="J9" s="2">
+        <f>C9/117</f>
         <v>3.299145299145299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="12" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>